--- a/Meta.xlsx
+++ b/Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD3FCF7-1E67-4672-8EF9-0C2C5D4438BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA178B9-7ED8-4FB2-8D7F-B86834DEADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="390" windowWidth="38175" windowHeight="15240" xr2:uid="{2E7EBCAC-6036-43C0-BFEE-816C31250952}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" xr2:uid="{2E7EBCAC-6036-43C0-BFEE-816C31250952}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="298">
   <si>
     <t>Meta Platforms Inc</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>Invested Capital (incl. Intangibles)</t>
+  </si>
+  <si>
+    <t>2004 by Mark Zuckerberg</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1949,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,8 +2060,8 @@
       <c r="H9" t="s">
         <v>120</v>
       </c>
-      <c r="I9">
-        <v>2004</v>
+      <c r="I9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -48439,14 +48442,14 @@
       </c>
       <c r="E4" s="70">
         <f ca="1">+TODAY()</f>
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="G4" t="s">
         <v>251</v>
       </c>
       <c r="J4" s="31">
         <f ca="1">V62</f>
-        <v>547.42977551985712</v>
+        <v>548.96838818927142</v>
       </c>
       <c r="L4" t="s">
         <v>252</v>
@@ -48468,7 +48471,7 @@
       </c>
       <c r="J5" s="34">
         <f ca="1">J4/J3-1</f>
-        <v>5.6814238455322519E-2</v>
+        <v>5.978453318392174E-2</v>
       </c>
       <c r="L5" t="s">
         <v>254</v>
@@ -49972,43 +49975,43 @@
       <c r="L52" s="57"/>
       <c r="M52" s="57">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>41926.503804887761</v>
+        <v>38943.839564397938</v>
       </c>
       <c r="N52" s="57">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>59973.874491368682</v>
+        <v>60292.278989457547</v>
       </c>
       <c r="O52" s="57">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>61919.619117964845</v>
+        <v>62248.353678043117</v>
       </c>
       <c r="P52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>64017.687673480832</v>
+        <v>64357.560991410588</v>
       </c>
       <c r="Q52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>65495.385398248647</v>
+        <v>65843.103892204992</v>
       </c>
       <c r="R52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>64806.400372887518</v>
+        <v>65150.46100860057</v>
       </c>
       <c r="S52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>63603.687815763165</v>
+        <v>63941.363186369636</v>
       </c>
       <c r="T52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>61963.119707167767</v>
+        <v>62292.085214193998</v>
       </c>
       <c r="U52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>59961.391863610617</v>
+        <v>60279.730090763005</v>
       </c>
       <c r="V52" s="58">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>57672.9327474725</v>
+        <v>57979.121423133496</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -50017,43 +50020,43 @@
       </c>
       <c r="M53" s="9">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.73055555555555551</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="N53" s="9">
         <f ca="1">M53+1</f>
-        <v>1.7305555555555556</v>
+        <v>1.675</v>
       </c>
       <c r="O53" s="9">
         <f ca="1">N53+1</f>
-        <v>2.7305555555555556</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="P53" s="9">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.7305555555555556</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="Q53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>4.7305555555555561</v>
+        <v>4.6749999999999998</v>
       </c>
       <c r="R53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7305555555555561</v>
+        <v>5.6749999999999998</v>
       </c>
       <c r="S53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7305555555555561</v>
+        <v>6.6749999999999998</v>
       </c>
       <c r="T53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7305555555555561</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="U53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7305555555555561</v>
+        <v>8.6750000000000007</v>
       </c>
       <c r="V53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>9.7305555555555561</v>
+        <v>9.6750000000000007</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -50066,7 +50069,7 @@
       <c r="Q54" s="25"/>
       <c r="V54" s="4">
         <f ca="1">SUM(M52:V52)</f>
-        <v>601340.60299285245</v>
+        <v>601327.89803857496</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -50110,7 +50113,7 @@
       <c r="U56" s="59"/>
       <c r="V56" s="60">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>736670.91968990397</v>
+        <v>740581.94488928933</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -50138,7 +50141,7 @@
       <c r="U57" s="61"/>
       <c r="V57" s="62">
         <f ca="1">V54+V56</f>
-        <v>1338011.5226827564</v>
+        <v>1341909.8429278643</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -50192,7 +50195,7 @@
       <c r="Q60" s="25"/>
       <c r="V60" s="63">
         <f ca="1">V57+V58-V59</f>
-        <v>1387000.5226827564</v>
+        <v>1390898.8429278643</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -50229,7 +50232,7 @@
       </c>
       <c r="V62" s="63">
         <f ca="1">V60/V61</f>
-        <v>547.42977551985712</v>
+        <v>548.96838818927142</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -50290,7 +50293,7 @@
       </c>
       <c r="C69" s="65">
         <f ca="1">+J4</f>
-        <v>547.42977551985712</v>
+        <v>548.96838818927142</v>
       </c>
       <c r="D69" s="66"/>
       <c r="E69" s="66"/>
@@ -50304,7 +50307,7 @@
       </c>
       <c r="N69" s="65">
         <f ca="1">+J4</f>
-        <v>547.42977551985712</v>
+        <v>548.96838818927142</v>
       </c>
       <c r="O69" s="66"/>
       <c r="P69" s="66"/>

--- a/Meta.xlsx
+++ b/Meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A53508-90ED-44D8-AF01-448E3AECA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8F8E02-C683-4B5A-8F6B-25FD363F1AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{2E7EBCAC-6036-43C0-BFEE-816C31250952}"/>
   </bookViews>
@@ -1459,6 +1459,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1477,7 +1478,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1985,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="5">
-        <v>596.1</v>
+        <v>755.41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>2514.3272489999999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="I4" s="4">
         <f>I2*I3</f>
-        <v>1498790.4731288999</v>
+        <v>1899347.9471670899</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,11 +2020,11 @@
         <v>8</v>
       </c>
       <c r="I5" s="4">
-        <f>28750+41480</f>
-        <v>70230</v>
+        <f>12005+35006</f>
+        <v>47011</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2034,10 +2034,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="4">
-        <v>28829</v>
+        <v>28832</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="I7" s="4">
         <f>I4-I5+I6</f>
-        <v>1457389.4731288999</v>
+        <v>1881168.9471670899</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2159,10 +2159,10 @@
   <dimension ref="A1:DW702"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2269,9 @@
       <c r="K3" s="11">
         <v>3.43</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="11">
+        <v>3.48</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -2336,7 +2338,10 @@
         <f t="shared" si="1"/>
         <v>12.216326530612244</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>13.547701149425288</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="11"/>
@@ -2401,7 +2406,9 @@
       <c r="K5" s="10">
         <v>0.05</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10">
+        <v>0.11</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
@@ -2459,7 +2466,9 @@
       <c r="K6" s="10">
         <v>0.1</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10">
+        <v>0.09</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="4"/>
@@ -2539,7 +2548,9 @@
       <c r="K8" s="4">
         <v>41392</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>46563</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2703,7 +2714,9 @@
       <c r="K9" s="4">
         <v>510</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>583</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2867,7 +2880,9 @@
       <c r="K10" s="4">
         <v>41902</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>47146</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -3031,7 +3046,9 @@
       <c r="K11" s="4">
         <v>412</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>370</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3195,7 +3212,9 @@
       <c r="K12" s="8">
         <v>42314</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>47516</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="4"/>
@@ -3384,7 +3403,9 @@
       <c r="K13" s="4">
         <v>7572</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>8491</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3555,7 +3576,10 @@
         <f t="shared" si="6"/>
         <v>34742</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <f t="shared" si="6"/>
+        <v>39025</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3729,7 +3753,9 @@
       <c r="K15" s="4">
         <v>12150</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>12942</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3893,7 +3919,9 @@
       <c r="K16" s="4">
         <v>2757</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>2979</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -4057,7 +4085,9 @@
       <c r="K17" s="4">
         <v>2280</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>2663</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -4228,7 +4258,10 @@
         <f t="shared" si="8"/>
         <v>17555</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <f t="shared" si="8"/>
+        <v>20441</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -4402,7 +4435,9 @@
       <c r="K19" s="4">
         <v>827</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>93</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -4538,7 +4573,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:K20" si="9">C18+C19</f>
+        <f t="shared" ref="C20:L20" si="9">C18+C19</f>
         <v>7307</v>
       </c>
       <c r="D20" s="4">
@@ -4573,7 +4608,10 @@
         <f t="shared" si="9"/>
         <v>18382</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <f t="shared" si="9"/>
+        <v>20534</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -4744,7 +4782,9 @@
       <c r="K21" s="4">
         <v>1738</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>2197</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -4916,7 +4956,10 @@
         <f t="shared" si="12"/>
         <v>16644</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <f t="shared" si="12"/>
+        <v>18337</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -5224,7 +5267,10 @@
         <f t="shared" si="14"/>
         <v>6.5864661654135341</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="9">
+        <f t="shared" si="14"/>
+        <v>7.2823669579030978</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="4"/>
@@ -5397,7 +5443,9 @@
       <c r="K25" s="4">
         <v>2527</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>2518</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -5683,7 +5731,10 @@
         <f>K3/G3-1</f>
         <v>5.8641975308642014E-2</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="10">
+        <f>L3/H3-1</f>
+        <v>6.4220183486238591E-2</v>
+      </c>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="4"/>
@@ -5829,100 +5880,103 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="78">
+      <c r="G28" s="72">
         <f>G12/C12-1</f>
         <v>0.27264793157619138</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="72">
         <f>H12/D12-1</f>
         <v>0.2210069064658271</v>
       </c>
-      <c r="I28" s="78">
+      <c r="I28" s="72">
         <f>I12/E12-1</f>
         <v>0.18868974404029748</v>
       </c>
-      <c r="J28" s="78">
+      <c r="J28" s="72">
         <f>J12/F12-1</f>
         <v>0.20627243717590749</v>
       </c>
-      <c r="K28" s="78">
+      <c r="K28" s="72">
         <f>K12/G12-1</f>
         <v>0.16071869428062002</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="72">
+        <f>L12/H12-1</f>
+        <v>0.21614496685521223</v>
+      </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="78">
+      <c r="Q28" s="72">
         <f t="shared" ref="Q28:U28" si="16">+Q12/P12-1</f>
         <v>0.26610910132884413</v>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="72">
         <f t="shared" si="16"/>
         <v>0.21596390228722573</v>
       </c>
-      <c r="S28" s="78">
+      <c r="S28" s="72">
         <f t="shared" si="16"/>
         <v>0.37182574303495608</v>
       </c>
-      <c r="T28" s="78">
+      <c r="T28" s="72">
         <f t="shared" si="16"/>
         <v>-1.1193175554782941E-2</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="72">
         <f t="shared" si="16"/>
         <v>0.15687468377226454</v>
       </c>
-      <c r="V28" s="78">
+      <c r="V28" s="72">
         <f>+V12/U12-1</f>
         <v>0.21941112807816054</v>
       </c>
-      <c r="W28" s="78">
+      <c r="W28" s="72">
         <f>+W12/V12-1</f>
         <v>0.14382283390374528</v>
       </c>
-      <c r="X28" s="78">
+      <c r="X28" s="72">
         <f t="shared" ref="X28" si="17">+X12/W12-1</f>
         <v>0.13477891156462585</v>
       </c>
-      <c r="Y28" s="78">
+      <c r="Y28" s="72">
         <f>+X28*(1-10%)</f>
         <v>0.12130102040816326</v>
       </c>
-      <c r="Z28" s="78">
+      <c r="Z28" s="72">
         <f t="shared" ref="Z28:AH28" si="18">+Y28*(1-10%)</f>
         <v>0.10917091836734694</v>
       </c>
-      <c r="AA28" s="78">
+      <c r="AA28" s="72">
         <f t="shared" si="18"/>
         <v>9.8253826530612251E-2</v>
       </c>
-      <c r="AB28" s="78">
+      <c r="AB28" s="72">
         <f t="shared" si="18"/>
         <v>8.8428443877551027E-2</v>
       </c>
-      <c r="AC28" s="78">
+      <c r="AC28" s="72">
         <f t="shared" si="18"/>
         <v>7.9585599489795933E-2</v>
       </c>
-      <c r="AD28" s="78">
+      <c r="AD28" s="72">
         <f t="shared" si="18"/>
         <v>7.162703954081634E-2</v>
       </c>
-      <c r="AE28" s="78">
+      <c r="AE28" s="72">
         <f t="shared" si="18"/>
         <v>6.4464335586734714E-2</v>
       </c>
-      <c r="AF28" s="78">
+      <c r="AF28" s="72">
         <f t="shared" si="18"/>
         <v>5.8017902028061244E-2</v>
       </c>
-      <c r="AG28" s="78">
+      <c r="AG28" s="72">
         <f t="shared" si="18"/>
         <v>5.2216111825255124E-2</v>
       </c>
-      <c r="AH28" s="78">
+      <c r="AH28" s="72">
         <f t="shared" si="18"/>
         <v>4.6994500642729614E-2</v>
       </c>
@@ -6057,10 +6111,13 @@
         <v>0.81734385979415536</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" ref="K29" si="20">K14/K12</f>
+        <f t="shared" ref="K29:L29" si="20">K14/K12</f>
         <v>0.82105213404546962</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10">
+        <f t="shared" si="20"/>
+        <v>0.82130229817324696</v>
+      </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="4"/>
@@ -6238,10 +6295,13 @@
         <v>0.48288761211920805</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" ref="K30" si="24">K18/K12</f>
+        <f t="shared" ref="K30:L30" si="24">K18/K12</f>
         <v>0.41487450961856598</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="10">
+        <f t="shared" si="24"/>
+        <v>0.43019193534809325</v>
+      </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="4"/>
@@ -6419,10 +6479,13 @@
         <v>0.115234375</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" ref="K31" si="29">K21/K20</f>
+        <f t="shared" ref="K31:L31" si="29">K21/K20</f>
         <v>9.4549015341094556E-2</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="10">
+        <f t="shared" si="29"/>
+        <v>0.10699327943897925</v>
+      </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="4"/>
@@ -51314,14 +51377,14 @@
       </c>
       <c r="J3" s="30">
         <f>+Main!I2</f>
-        <v>596.1</v>
+        <v>755.41</v>
       </c>
       <c r="L3" t="s">
         <v>249</v>
       </c>
       <c r="O3" s="30">
         <f>+J3</f>
-        <v>596.1</v>
+        <v>755.41</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -51330,14 +51393,14 @@
       </c>
       <c r="E4" s="70">
         <f ca="1">+TODAY()</f>
-        <v>45779</v>
+        <v>45870</v>
       </c>
       <c r="G4" t="s">
         <v>251</v>
       </c>
       <c r="J4" s="31">
         <f ca="1">V62</f>
-        <v>550.48162538264603</v>
+        <v>548.16381876544187</v>
       </c>
       <c r="L4" t="s">
         <v>252</v>
@@ -51359,7 +51422,7 @@
       </c>
       <c r="J5" s="34">
         <f ca="1">J4/J3-1</f>
-        <v>-7.6528056731008154E-2</v>
+        <v>-0.27434926891960409</v>
       </c>
       <c r="L5" t="s">
         <v>254</v>
@@ -52863,43 +52926,43 @@
       <c r="L52" s="57"/>
       <c r="M52" s="57">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>38343.372922723902</v>
+        <v>24638.647441268928</v>
       </c>
       <c r="N52" s="57">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>60356.16245374865</v>
+        <v>61795.209710962008</v>
       </c>
       <c r="O52" s="57">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>62314.309726579049</v>
+        <v>63800.04428708717</v>
       </c>
       <c r="P52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>64425.75187784525</v>
+        <v>65961.828688639289</v>
       </c>
       <c r="Q52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>65912.868804840808</v>
+        <v>67484.402335345745</v>
       </c>
       <c r="R52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>65219.492022507329</v>
+        <v>66774.493654424514</v>
       </c>
       <c r="S52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>64009.113085035016</v>
+        <v>65535.256147763124</v>
       </c>
       <c r="T52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>62358.087599044891</v>
+        <v>63844.86593743314</v>
       </c>
       <c r="U52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>60343.600258706138</v>
+        <v>61782.348000649035</v>
       </c>
       <c r="V52" s="58">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>58040.55395139657</v>
+        <v>59424.39110364933</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -52908,43 +52971,43 @@
       </c>
       <c r="M53" s="9">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.66388888888888886</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N53" s="9">
         <f ca="1">M53+1</f>
-        <v>1.6638888888888888</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="O53" s="9">
         <f ca="1">N53+1</f>
-        <v>2.6638888888888888</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="P53" s="9">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.6638888888888888</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="Q53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>4.6638888888888888</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="R53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>5.6638888888888888</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="S53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6638888888888888</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="T53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>7.6638888888888888</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="U53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>8.6638888888888879</v>
+        <v>8.4166666666666679</v>
       </c>
       <c r="V53" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>9.6638888888888879</v>
+        <v>9.4166666666666679</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -52957,7 +53020,7 @@
       <c r="Q54" s="25"/>
       <c r="V54" s="4">
         <f ca="1">SUM(M52:V52)</f>
-        <v>601323.31270242762</v>
+        <v>601041.48730722221</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -53001,7 +53064,7 @@
       <c r="U56" s="59"/>
       <c r="V56" s="60">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>741366.63807096938</v>
+        <v>759042.73913062585</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -53029,7 +53092,7 @@
       <c r="U57" s="61"/>
       <c r="V57" s="62">
         <f ca="1">V54+V56</f>
-        <v>1342689.950773397</v>
+        <v>1360084.2264378481</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -53042,7 +53105,7 @@
       <c r="Q58" s="25"/>
       <c r="V58" s="63">
         <f>+Main!I5</f>
-        <v>70230</v>
+        <v>47011</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
@@ -53070,7 +53133,7 @@
       <c r="U59" s="59"/>
       <c r="V59" s="60">
         <f>+Main!I6</f>
-        <v>28829</v>
+        <v>28832</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
@@ -53083,7 +53146,7 @@
       <c r="Q60" s="25"/>
       <c r="V60" s="63">
         <f ca="1">V57+V58-V59</f>
-        <v>1384090.950773397</v>
+        <v>1378263.2264378481</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -53120,7 +53183,7 @@
       </c>
       <c r="V62" s="63">
         <f ca="1">V60/V61</f>
-        <v>550.48162538264603</v>
+        <v>548.16381876544187</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -53153,35 +53216,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="74"/>
       <c r="M68" s="64"/>
-      <c r="N68" s="74" t="s">
+      <c r="N68" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="O68" s="74"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="74"/>
-      <c r="S68" s="74"/>
-      <c r="T68" s="74"/>
-      <c r="U68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="75"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="75"/>
+      <c r="T68" s="75"/>
+      <c r="U68" s="76"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="77" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="65">
         <f ca="1">+J4</f>
-        <v>550.48162538264603</v>
+        <v>548.16381876544187</v>
       </c>
       <c r="D69" s="66"/>
       <c r="E69" s="66"/>
@@ -53190,12 +53253,12 @@
       <c r="H69" s="66"/>
       <c r="I69" s="66"/>
       <c r="J69" s="66"/>
-      <c r="M69" s="76" t="s">
+      <c r="M69" s="77" t="s">
         <v>156</v>
       </c>
       <c r="N69" s="65">
         <f ca="1">+J4</f>
-        <v>550.48162538264603</v>
+        <v>548.16381876544187</v>
       </c>
       <c r="O69" s="66"/>
       <c r="P69" s="66"/>
@@ -53206,7 +53269,7 @@
       <c r="U69" s="66"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
+      <c r="B70" s="77"/>
       <c r="C70" s="67"/>
       <c r="D70" s="68"/>
       <c r="E70" s="68"/>
@@ -53215,7 +53278,7 @@
       <c r="H70" s="68"/>
       <c r="I70" s="68"/>
       <c r="J70" s="68"/>
-      <c r="M70" s="76"/>
+      <c r="M70" s="77"/>
       <c r="N70" s="67"/>
       <c r="O70" s="68"/>
       <c r="P70" s="68"/>
@@ -53226,7 +53289,7 @@
       <c r="U70" s="68"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="76"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="67"/>
       <c r="D71" s="68"/>
       <c r="E71" s="68"/>
@@ -53235,7 +53298,7 @@
       <c r="H71" s="68"/>
       <c r="I71" s="68"/>
       <c r="J71" s="68"/>
-      <c r="M71" s="76"/>
+      <c r="M71" s="77"/>
       <c r="N71" s="67"/>
       <c r="O71" s="68"/>
       <c r="P71" s="68"/>
@@ -53246,7 +53309,7 @@
       <c r="U71" s="68"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="76"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="67"/>
       <c r="D72" s="69"/>
       <c r="E72" s="69"/>
@@ -53255,7 +53318,7 @@
       <c r="H72" s="69"/>
       <c r="I72" s="69"/>
       <c r="J72" s="69"/>
-      <c r="M72" s="76"/>
+      <c r="M72" s="77"/>
       <c r="N72" s="67"/>
       <c r="O72" s="69"/>
       <c r="P72" s="69"/>
@@ -53266,7 +53329,7 @@
       <c r="U72" s="69"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="76"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="67"/>
       <c r="D73" s="68"/>
       <c r="E73" s="68"/>
@@ -53275,7 +53338,7 @@
       <c r="H73" s="68"/>
       <c r="I73" s="68"/>
       <c r="J73" s="68"/>
-      <c r="M73" s="76"/>
+      <c r="M73" s="77"/>
       <c r="N73" s="67"/>
       <c r="O73" s="68"/>
       <c r="P73" s="68"/>
@@ -53286,7 +53349,7 @@
       <c r="U73" s="68"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="76"/>
+      <c r="B74" s="77"/>
       <c r="C74" s="67"/>
       <c r="D74" s="68"/>
       <c r="E74" s="68"/>
@@ -53295,7 +53358,7 @@
       <c r="H74" s="68"/>
       <c r="I74" s="68"/>
       <c r="J74" s="68"/>
-      <c r="M74" s="76"/>
+      <c r="M74" s="77"/>
       <c r="N74" s="67"/>
       <c r="O74" s="68"/>
       <c r="P74" s="68"/>
@@ -53306,7 +53369,7 @@
       <c r="U74" s="68"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="76"/>
+      <c r="B75" s="77"/>
       <c r="C75" s="67"/>
       <c r="D75" s="68"/>
       <c r="E75" s="68"/>
@@ -53315,7 +53378,7 @@
       <c r="H75" s="68"/>
       <c r="I75" s="68"/>
       <c r="J75" s="68"/>
-      <c r="M75" s="76"/>
+      <c r="M75" s="77"/>
       <c r="N75" s="67"/>
       <c r="O75" s="68"/>
       <c r="P75" s="68"/>
@@ -53326,7 +53389,7 @@
       <c r="U75" s="68"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="77"/>
+      <c r="B76" s="78"/>
       <c r="C76" s="67"/>
       <c r="D76" s="68"/>
       <c r="E76" s="68"/>
@@ -53335,7 +53398,7 @@
       <c r="H76" s="68"/>
       <c r="I76" s="68"/>
       <c r="J76" s="68"/>
-      <c r="M76" s="77"/>
+      <c r="M76" s="78"/>
       <c r="N76" s="67"/>
       <c r="O76" s="68"/>
       <c r="P76" s="68"/>

--- a/Meta.xlsx
+++ b/Meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2396549-EBB9-41D4-9E92-379BAF8A8A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0543BA-1720-4848-896C-71C67094B843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{2E7EBCAC-6036-43C0-BFEE-816C31250952}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{2E7EBCAC-6036-43C0-BFEE-816C31250952}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1020,13 +1020,19 @@
     <numFmt numFmtId="171" formatCode="&quot;FY&quot;0&quot;A&quot;"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1341,139 +1347,142 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1958,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B4D475-5E7D-486D-B992-BB5391B55D2A}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1984,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="3">
-        <v>755.41</v>
+        <v>653.79999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1992,11 +2001,11 @@
         <v>6</v>
       </c>
       <c r="I3" s="4">
-        <f>2171.148098+343.179151</f>
-        <v>2514.3272489999999</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>299</v>
+        <f>2177.889269+342.638328</f>
+        <v>2520.5275969999998</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2008,7 +2017,7 @@
       </c>
       <c r="I4" s="4">
         <f>I2*I3</f>
-        <v>1899347.9471670899</v>
+        <v>1647920.9429185998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2019,11 +2028,11 @@
         <v>8</v>
       </c>
       <c r="I5" s="4">
-        <f>12005+35006</f>
-        <v>47011</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>299</v>
+        <f>10187+34261</f>
+        <v>44448</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2033,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="4">
-        <v>28832</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>299</v>
+        <v>28834</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2051,7 +2060,7 @@
       </c>
       <c r="I7" s="4">
         <f>I4-I5+I6</f>
-        <v>1881168.9471670899</v>
+        <v>1632306.9429185998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2158,10 +2167,10 @@
   <dimension ref="A1:DW702"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2272,7 +2281,9 @@
       <c r="L3" s="10">
         <v>3.48</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10">
+        <v>3.54</v>
+      </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10">
@@ -2342,7 +2353,10 @@
         <f t="shared" si="1"/>
         <v>13.547701149425288</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>14.342372881355931</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="10"/>
       <c r="P4" s="3">
@@ -2409,7 +2423,9 @@
       <c r="L5" s="11">
         <v>0.11</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="10"/>
       <c r="P5" s="12" t="s">
@@ -2469,7 +2485,9 @@
       <c r="L6" s="11">
         <v>0.09</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="11">
+        <v>0.1</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="4"/>
       <c r="P6" s="12" t="s">
@@ -2551,7 +2569,9 @@
       <c r="L8" s="4">
         <v>46563</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>50082</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4">
@@ -2717,7 +2737,9 @@
       <c r="L9" s="4">
         <v>583</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>690</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4">
@@ -2883,7 +2905,9 @@
       <c r="L10" s="4">
         <v>47146</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>50772</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4">
@@ -3049,7 +3073,9 @@
       <c r="L11" s="4">
         <v>370</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>470</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4">
@@ -3215,7 +3241,9 @@
       <c r="L12" s="13">
         <v>47516</v>
       </c>
-      <c r="M12" s="13"/>
+      <c r="M12" s="13">
+        <v>51242</v>
+      </c>
       <c r="N12" s="13"/>
       <c r="O12" s="4"/>
       <c r="P12" s="13">
@@ -3406,7 +3434,9 @@
       <c r="L13" s="4">
         <v>8491</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>9206</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4">
@@ -3580,7 +3610,10 @@
         <f t="shared" si="6"/>
         <v>39025</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <f t="shared" si="6"/>
+        <v>42036</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4">
@@ -3756,7 +3789,9 @@
       <c r="L15" s="4">
         <v>12942</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>15144</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4">
@@ -3922,7 +3957,9 @@
       <c r="L16" s="4">
         <v>2979</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>2845</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4">
@@ -4088,7 +4125,9 @@
       <c r="L17" s="4">
         <v>2663</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <v>3512</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4">
@@ -4262,7 +4301,10 @@
         <f t="shared" si="8"/>
         <v>20441</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <f t="shared" si="8"/>
+        <v>20535</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4">
@@ -4438,7 +4480,9 @@
       <c r="L19" s="4">
         <v>93</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <v>1128</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4">
@@ -4573,7 +4617,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:L20" si="9">C18+C19</f>
+        <f t="shared" ref="C20:M20" si="9">C18+C19</f>
         <v>7307</v>
       </c>
       <c r="D20" s="4">
@@ -4612,7 +4656,10 @@
         <f t="shared" si="9"/>
         <v>20534</v>
       </c>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4">
+        <f t="shared" si="9"/>
+        <v>21663</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
@@ -4785,7 +4832,9 @@
       <c r="L21" s="4">
         <v>2197</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>18954</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4">
@@ -4960,7 +5009,10 @@
         <f t="shared" si="12"/>
         <v>18337</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <f t="shared" si="12"/>
+        <v>2709</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4">
@@ -5271,7 +5323,10 @@
         <f t="shared" si="14"/>
         <v>7.2823669579030978</v>
       </c>
-      <c r="M24" s="14"/>
+      <c r="M24" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0762812872467222</v>
+      </c>
       <c r="N24" s="14"/>
       <c r="O24" s="4"/>
       <c r="P24" s="14">
@@ -5446,7 +5501,9 @@
       <c r="L25" s="4">
         <v>2518</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <v>2517</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4">
@@ -5712,7 +5769,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11">
-        <f t="shared" ref="G27:L27" si="15">G3/C3-1</f>
+        <f t="shared" ref="G27:M27" si="15">G3/C3-1</f>
         <v>7.2847682119205448E-2</v>
       </c>
       <c r="H27" s="11">
@@ -5735,7 +5792,10 @@
         <f t="shared" si="15"/>
         <v>6.4220183486238591E-2</v>
       </c>
-      <c r="M27" s="11"/>
+      <c r="M27" s="11">
+        <f t="shared" si="15"/>
+        <v>7.5987841945288848E-2</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -5881,7 +5941,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="15">
-        <f t="shared" ref="G28:L28" si="17">G12/C12-1</f>
+        <f t="shared" ref="G28:M28" si="17">G12/C12-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="H28" s="15">
@@ -5904,7 +5964,10 @@
         <f t="shared" si="17"/>
         <v>0.21614496685521223</v>
       </c>
-      <c r="M28" s="11"/>
+      <c r="M28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.26246027248761972</v>
+      </c>
       <c r="N28" s="11"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -6118,31 +6181,34 @@
         <f t="shared" si="22"/>
         <v>0.82130229817324696</v>
       </c>
-      <c r="M29" s="11"/>
+      <c r="M29" s="11">
+        <f t="shared" ref="M29" si="23">M14/M12</f>
+        <v>0.82034268763904605</v>
+      </c>
       <c r="N29" s="11"/>
       <c r="O29" s="4"/>
       <c r="P29" s="11">
-        <f t="shared" ref="P29" si="23">+P14/P12</f>
+        <f t="shared" ref="P29" si="24">+P14/P12</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" ref="Q29:U29" si="24">+Q14/Q12</f>
+        <f t="shared" ref="Q29:U29" si="25">+Q14/Q12</f>
         <v>0.81936998741106415</v>
       </c>
       <c r="R29" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="S29" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="T29" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.78347297378418479</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.8075714222176098</v>
       </c>
       <c r="V29" s="11">
@@ -6263,70 +6329,73 @@
         <v>34</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" ref="C30:J30" si="25">C18/C12</f>
+        <f t="shared" ref="C30:J30" si="26">C18/C12</f>
         <v>0.25229533950078548</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.29350917216163003</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.40845632229756679</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.37904265532848719</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.38000051188861306</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.48288761211920805</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" ref="K30:L30" si="26">K18/K12</f>
+        <f t="shared" ref="K30:L30" si="27">K18/K12</f>
         <v>0.41487450961856598</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.43019193534809325</v>
       </c>
-      <c r="M30" s="11"/>
+      <c r="M30" s="11">
+        <f t="shared" ref="M30" si="28">M18/M12</f>
+        <v>0.4007454822216151</v>
+      </c>
       <c r="N30" s="11"/>
       <c r="O30" s="4"/>
       <c r="P30" s="11">
-        <f t="shared" ref="P30" si="27">+P18/P12</f>
+        <f t="shared" ref="P30" si="29">+P18/P12</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" ref="Q30:U30" si="28">+Q18/Q12</f>
+        <f t="shared" ref="Q30:U30" si="30">+Q18/Q12</f>
         <v>0.33927889443682191</v>
       </c>
       <c r="R30" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="T30" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.24821411726367604</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.34655527716416362</v>
       </c>
       <c r="V30" s="11">
@@ -6447,23 +6516,23 @@
         <v>35</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" ref="C31:G31" si="29">C21/C20</f>
+        <f t="shared" ref="C31:G31" si="31">C21/C20</f>
         <v>0.21869440262761736</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.16194985472936618</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.16599238457877202</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.12789959811041388</v>
       </c>
       <c r="H31" s="11">
@@ -6471,46 +6540,49 @@
         <v>0.10863233152389778</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" ref="I31:J31" si="30">I21/I20</f>
+        <f t="shared" ref="I31:J31" si="32">I21/I20</f>
         <v>0.11973964762652901</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.115234375</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" ref="K31:L31" si="31">K21/K20</f>
+        <f t="shared" ref="K31:L31" si="33">K21/K20</f>
         <v>9.4549015341094556E-2</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10699327943897925</v>
       </c>
-      <c r="M31" s="11"/>
+      <c r="M31" s="11">
+        <f t="shared" ref="M31" si="34">M21/M20</f>
+        <v>0.87494806813460735</v>
+      </c>
       <c r="N31" s="11"/>
       <c r="O31" s="4"/>
       <c r="P31" s="11">
-        <f t="shared" ref="P31" si="32">+P21/P20</f>
+        <f t="shared" ref="P31" si="35">+P21/P20</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" ref="Q31:U31" si="33">+Q21/Q20</f>
+        <f t="shared" ref="Q31:U31" si="36">+Q21/Q20</f>
         <v>0.25499758181525067</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="S31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="T31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.19497553697213643</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.17563464620055663</v>
       </c>
       <c r="V31" s="11">
@@ -7347,27 +7419,27 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4">
-        <f t="shared" ref="P37:U37" si="34">+SUM(P33:P36)</f>
+        <f t="shared" ref="P37:U37" si="37">+SUM(P33:P36)</f>
         <v>50480</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>66225</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>75670</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>66666</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>59549</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>85365</v>
       </c>
       <c r="V37" s="4">
@@ -8223,27 +8295,27 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4">
-        <f t="shared" ref="P43:U43" si="35">+SUM(P38:P42)</f>
+        <f t="shared" ref="P43:U43" si="38">+SUM(P38:P42)</f>
         <v>46854</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>67151</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>83646</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>99321</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>126178</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>144258</v>
       </c>
       <c r="V43" s="4">
@@ -8374,27 +8446,27 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="13">
-        <f t="shared" ref="P44:U44" si="36">+P37+P43</f>
+        <f t="shared" ref="P44:U44" si="39">+P37+P43</f>
         <v>97334</v>
       </c>
       <c r="Q44" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>133376</v>
       </c>
       <c r="R44" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>159316</v>
       </c>
       <c r="S44" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>165987</v>
       </c>
       <c r="T44" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>185727</v>
       </c>
       <c r="U44" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>229623</v>
       </c>
       <c r="V44" s="13">
@@ -8965,23 +9037,23 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4">
-        <f t="shared" ref="P48:T48" si="37">+SUM(P45:P47)</f>
+        <f t="shared" ref="P48:T48" si="40">+SUM(P45:P47)</f>
         <v>7017</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>15053</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>14981</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>21135</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27026</v>
       </c>
       <c r="U48" s="4">
@@ -9692,19 +9764,19 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4">
-        <f t="shared" ref="P53:S53" si="38">+SUM(P49:P52)</f>
+        <f t="shared" ref="P53:S53" si="41">+SUM(P49:P52)</f>
         <v>6190</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>17269</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>16045</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>19973</v>
       </c>
       <c r="T53" s="4">
@@ -9843,19 +9915,19 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="13">
-        <f t="shared" ref="P54:S54" si="39">+P48+P53</f>
+        <f t="shared" ref="P54:S54" si="42">+P48+P53</f>
         <v>13207</v>
       </c>
       <c r="Q54" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>32322</v>
       </c>
       <c r="R54" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>31026</v>
       </c>
       <c r="S54" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>41108</v>
       </c>
       <c r="T54" s="13">
@@ -10138,23 +10210,23 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="13">
-        <f t="shared" ref="P56:T56" si="40">+P54+P55</f>
+        <f t="shared" ref="P56:T56" si="43">+P54+P55</f>
         <v>97334</v>
       </c>
       <c r="Q56" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>133376</v>
       </c>
       <c r="R56" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>159316</v>
       </c>
       <c r="S56" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>165987</v>
       </c>
       <c r="T56" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>185727</v>
       </c>
       <c r="U56" s="13">
@@ -10420,23 +10492,23 @@
         <v>22112</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" ref="Q58:S58" si="41">+Q22</f>
+        <f t="shared" ref="Q58:S58" si="44">+Q22</f>
         <v>18485</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>29146</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>39370</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" ref="T58:U58" si="42">+T22</f>
+        <f t="shared" ref="T58:U58" si="45">+T22</f>
         <v>23200</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>39098</v>
       </c>
       <c r="V58" s="4">
@@ -12303,23 +12375,23 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4">
-        <f t="shared" ref="P71:T71" si="43">+SUM(P65:P70)</f>
+        <f t="shared" ref="P71:T71" si="46">+SUM(P65:P70)</f>
         <v>-1527</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7250</v>
       </c>
       <c r="R71" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-2723</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>700</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5683</v>
       </c>
       <c r="U71" s="4">
@@ -12454,27 +12526,27 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="13">
-        <f t="shared" ref="P72:U72" si="44">+P58+SUM(P59:P64)+P71</f>
+        <f t="shared" ref="P72:U72" si="47">+P58+SUM(P59:P64)+P71</f>
         <v>29274</v>
       </c>
       <c r="Q72" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>36314</v>
       </c>
       <c r="R72" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>38747</v>
       </c>
       <c r="S72" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>57683</v>
       </c>
       <c r="T72" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>50475</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>71113</v>
       </c>
       <c r="V72" s="13">
@@ -13333,27 +13405,27 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="13">
-        <f t="shared" ref="P78:U78" si="45">+SUM(P73:P77)</f>
+        <f t="shared" ref="P78:U78" si="48">+SUM(P73:P77)</f>
         <v>-11603</v>
       </c>
       <c r="Q78" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-19864</v>
       </c>
       <c r="R78" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-30059</v>
       </c>
       <c r="S78" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-7570</v>
       </c>
       <c r="T78" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-28970</v>
       </c>
       <c r="U78" s="13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-24495</v>
       </c>
       <c r="V78" s="13">
@@ -14351,19 +14423,19 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="13">
-        <f t="shared" ref="P85:S85" si="46">+SUM(P79:P84)</f>
+        <f t="shared" ref="P85:S85" si="49">+SUM(P79:P84)</f>
         <v>-15572</v>
       </c>
       <c r="Q85" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-7299</v>
       </c>
       <c r="R85" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-10292</v>
       </c>
       <c r="S85" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-50728</v>
       </c>
       <c r="T85" s="13">
@@ -14646,27 +14718,27 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="13">
-        <f t="shared" ref="P87:U87" si="47">+P85+P86+P78+P72</f>
+        <f t="shared" ref="P87:U87" si="50">+P85+P86+P78+P72</f>
         <v>1920</v>
       </c>
       <c r="Q87" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>9155</v>
       </c>
       <c r="R87" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1325</v>
       </c>
       <c r="S87" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1089</v>
       </c>
       <c r="T87" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1269</v>
       </c>
       <c r="U87" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>27231</v>
       </c>
       <c r="V87" s="13">
@@ -14797,27 +14869,27 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4">
-        <f t="shared" ref="P88:U88" si="48">+P89-P87</f>
+        <f t="shared" ref="P88:U88" si="51">+P89-P87</f>
         <v>8204</v>
       </c>
       <c r="Q88" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>10124</v>
       </c>
       <c r="R88" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>19279</v>
       </c>
       <c r="S88" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>17954</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>16865</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>15596</v>
       </c>
       <c r="V88" s="4">
@@ -14947,27 +15019,27 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4">
-        <f t="shared" ref="P89:U89" si="49">+Q88</f>
+        <f t="shared" ref="P89:U89" si="52">+Q88</f>
         <v>10124</v>
       </c>
       <c r="Q89" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>19279</v>
       </c>
       <c r="R89" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>17954</v>
       </c>
       <c r="S89" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>16865</v>
       </c>
       <c r="T89" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>15596</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>42827</v>
       </c>
       <c r="V89" s="4">
@@ -51386,14 +51458,14 @@
       </c>
       <c r="J3" s="33">
         <f>+Main!I2</f>
-        <v>755.41</v>
+        <v>653.79999999999995</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>249</v>
       </c>
       <c r="O3" s="33">
         <f>+J3</f>
-        <v>755.41</v>
+        <v>653.79999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
@@ -51402,14 +51474,14 @@
       </c>
       <c r="E4" s="34">
         <f ca="1">+TODAY()</f>
-        <v>45902</v>
+        <v>45961</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>251</v>
       </c>
       <c r="J4" s="35">
         <f ca="1">V62</f>
-        <v>550.57979489014247</v>
+        <v>552.80299671630655</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>252</v>
@@ -51431,7 +51503,7 @@
       </c>
       <c r="J5" s="37">
         <f ca="1">J4/J3-1</f>
-        <v>-0.27115103733053247</v>
+        <v>-0.15447690927453872</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>254</v>
@@ -52935,43 +53007,43 @@
       <c r="L52" s="61"/>
       <c r="M52" s="61">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>19707.745062305698</v>
+        <v>10093.110450051576</v>
       </c>
       <c r="N52" s="61">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>62304.466346258909</v>
+        <v>63285.320184840231</v>
       </c>
       <c r="O52" s="61">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>64325.822839136847</v>
+        <v>65338.498718599825</v>
       </c>
       <c r="P52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>66505.422586825356</v>
+        <v>67552.411717078576</v>
       </c>
       <c r="Q52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>68040.54381992144</v>
+        <v>69111.700231309878</v>
       </c>
       <c r="R52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>67324.784754999491</v>
+        <v>68384.673033178551</v>
       </c>
       <c r="S52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>66075.334645679613</v>
+        <v>67115.552938579756</v>
       </c>
       <c r="T52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>64371.013866380315</v>
+        <v>65384.401184286478</v>
       </c>
       <c r="U52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>62291.498642110048</v>
+        <v>63272.148331243676</v>
       </c>
       <c r="V52" s="62">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>59914.109734099155</v>
+        <v>60857.332394755198</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -52980,43 +53052,43 @@
       </c>
       <c r="M53" s="14">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.33055555555555555</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N53" s="14">
         <f ca="1">M53+1</f>
-        <v>1.3305555555555555</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O53" s="14">
         <f ca="1">N53+1</f>
-        <v>2.3305555555555557</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="P53" s="14">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.3305555555555557</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="Q53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>4.3305555555555557</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="R53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3305555555555557</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="S53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3305555555555557</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="T53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>7.3305555555555557</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="U53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3305555555555557</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="V53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>9.3305555555555557</v>
+        <v>9.1666666666666679</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -53029,7 +53101,7 @@
       <c r="Q54" s="24"/>
       <c r="V54" s="4">
         <f ca="1">SUM(M52:V52)</f>
-        <v>600860.7422977169</v>
+        <v>600395.14918392373</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -53073,7 +53145,7 @@
       <c r="U56" s="63"/>
       <c r="V56" s="64">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>765298.03874339897</v>
+        <v>777346.05974382744</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -53101,7 +53173,7 @@
       <c r="U57" s="65"/>
       <c r="V57" s="66">
         <f ca="1">V54+V56</f>
-        <v>1366158.781041116</v>
+        <v>1377741.2089277511</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -53114,7 +53186,7 @@
       <c r="Q58" s="24"/>
       <c r="V58" s="67">
         <f>+Main!I5</f>
-        <v>47011</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -53142,7 +53214,7 @@
       <c r="U59" s="63"/>
       <c r="V59" s="64">
         <f>+Main!I6</f>
-        <v>28832</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -53155,7 +53227,7 @@
       <c r="Q60" s="24"/>
       <c r="V60" s="67">
         <f ca="1">V57+V58-V59</f>
-        <v>1384337.781041116</v>
+        <v>1393355.2089277511</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -53183,7 +53255,7 @@
       <c r="U61" s="63"/>
       <c r="V61" s="64">
         <f>+Main!I3</f>
-        <v>2514.3272489999999</v>
+        <v>2520.5275969999998</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -53192,7 +53264,7 @@
       </c>
       <c r="V62" s="67">
         <f ca="1">V60/V61</f>
-        <v>550.57979489014247</v>
+        <v>552.80299671630655</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -53225,197 +53297,197 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="68"/>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="70"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
       <c r="M68" s="68"/>
-      <c r="N68" s="71" t="s">
+      <c r="N68" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="72"/>
+      <c r="O68" s="76"/>
+      <c r="P68" s="76"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="76"/>
+      <c r="S68" s="76"/>
+      <c r="T68" s="76"/>
+      <c r="U68" s="77"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="69">
         <f ca="1">+J4</f>
-        <v>550.57979489014247</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="M69" s="73" t="s">
+        <v>552.80299671630655</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="M69" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="N69" s="74">
+      <c r="N69" s="69">
         <f ca="1">+J4</f>
-        <v>550.57979489014247</v>
-      </c>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="75"/>
+        <v>552.80299671630655</v>
+      </c>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
+      <c r="R69" s="70"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="70"/>
+      <c r="U69" s="70"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="73"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="77"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="73"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="77"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="77"/>
-      <c r="T71" s="77"/>
-      <c r="U71" s="77"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="73"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
-      <c r="R72" s="78"/>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
-      <c r="U72" s="78"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="73"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="77"/>
-      <c r="P73" s="77"/>
-      <c r="Q73" s="77"/>
-      <c r="R73" s="78"/>
-      <c r="S73" s="77"/>
-      <c r="T73" s="77"/>
-      <c r="U73" s="77"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="71"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="73"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="76"/>
-      <c r="O74" s="77"/>
-      <c r="P74" s="77"/>
-      <c r="Q74" s="77"/>
-      <c r="R74" s="78"/>
-      <c r="S74" s="77"/>
-      <c r="T74" s="77"/>
-      <c r="U74" s="77"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="73"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="78"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="76"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="77"/>
-      <c r="R75" s="78"/>
-      <c r="S75" s="77"/>
-      <c r="T75" s="77"/>
-      <c r="U75" s="77"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B76" s="79"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
       <c r="M76" s="79"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="77"/>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="77"/>
-      <c r="R76" s="78"/>
-      <c r="S76" s="77"/>
-      <c r="T76" s="77"/>
-      <c r="U76" s="77"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="72"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Meta.xlsx
+++ b/Meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0543BA-1720-4848-896C-71C67094B843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AED6C4-6DE0-4B12-8770-D574AE76371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{2E7EBCAC-6036-43C0-BFEE-816C31250952}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="306">
   <si>
     <t>Meta Platforms Inc</t>
   </si>
@@ -1004,6 +1004,18 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Susan Li</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>Andrew Boswoth</t>
+  </si>
 </sst>
 </file>
 
@@ -1350,7 +1362,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1484,6 +1496,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1542,16 +1555,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>14285</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1566,8 +1579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12044363" y="161925"/>
-          <a:ext cx="19047" cy="5795963"/>
+          <a:off x="15087601" y="90488"/>
+          <a:ext cx="19047" cy="4910138"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1597,16 +1610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1621,8 +1634,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6805613" y="187324"/>
-          <a:ext cx="0" cy="11474450"/>
+          <a:off x="7562850" y="0"/>
+          <a:ext cx="0" cy="9759950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1967,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B4D475-5E7D-486D-B992-BB5391B55D2A}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1993,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="3">
-        <v>653.79999999999995</v>
+        <v>694.88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2001,11 +2014,11 @@
         <v>6</v>
       </c>
       <c r="I3" s="4">
-        <f>2177.889269+342.638328</f>
-        <v>2520.5275969999998</v>
+        <f>2187.177748+342.377716</f>
+        <v>2529.555464</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2017,7 +2030,7 @@
       </c>
       <c r="I4" s="4">
         <f>I2*I3</f>
-        <v>1647920.9429185998</v>
+        <v>1757737.5008243199</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2028,11 +2041,11 @@
         <v>8</v>
       </c>
       <c r="I5" s="4">
-        <f>10187+34261</f>
-        <v>44448</v>
+        <f>35873+45719</f>
+        <v>81592</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2042,10 +2055,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="4">
-        <v>28834</v>
+        <v>58744</v>
       </c>
       <c r="J6" s="80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2060,7 +2073,7 @@
       </c>
       <c r="I7" s="4">
         <f>I4-I5+I6</f>
-        <v>1632306.9429185998</v>
+        <v>1734889.5008243199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2105,6 +2118,22 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2167,10 +2196,10 @@
   <dimension ref="A1:DW702"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2284,7 +2313,9 @@
       <c r="M3" s="10">
         <v>3.54</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="10">
+        <v>3.58</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10">
         <v>2.0299999999999998</v>
@@ -2307,7 +2338,9 @@
       <c r="V3" s="10">
         <v>3.35</v>
       </c>
-      <c r="W3" s="10"/>
+      <c r="W3" s="10">
+        <v>3.58</v>
+      </c>
     </row>
     <row r="4" spans="1:127" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -2338,7 +2371,7 @@
         <v>11.840366972477064</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:V4" si="1">I10/(I3*1000)</f>
+        <f t="shared" ref="I4:W4" si="1">I10/(I3*1000)</f>
         <v>12.255015197568389</v>
       </c>
       <c r="J4" s="3">
@@ -2357,7 +2390,10 @@
         <f t="shared" si="1"/>
         <v>14.342372881355931</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O4" s="10"/>
       <c r="P4" s="3">
         <f t="shared" si="1"/>
@@ -2387,7 +2423,10 @@
         <f t="shared" si="1"/>
         <v>48.464179104477608</v>
       </c>
-      <c r="W4" s="10"/>
+      <c r="W4" s="3">
+        <f t="shared" si="1"/>
+        <v>55.519273743016761</v>
+      </c>
     </row>
     <row r="5" spans="1:127" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -2426,7 +2465,9 @@
       <c r="M5" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="11">
+        <v>0.18</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="12" t="s">
         <v>109</v>
@@ -2449,7 +2490,9 @@
       <c r="V5" s="11">
         <v>0.06</v>
       </c>
-      <c r="W5" s="10"/>
+      <c r="W5" s="11">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="6" spans="1:127" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2488,7 +2531,9 @@
       <c r="M6" s="11">
         <v>0.1</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="11">
+        <v>0.06</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="12" t="s">
         <v>109</v>
@@ -2510,6 +2555,9 @@
       </c>
       <c r="V6" s="11">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:127" x14ac:dyDescent="0.2">
@@ -2595,7 +2643,9 @@
       <c r="V8" s="4">
         <v>160633</v>
       </c>
-      <c r="W8" s="4"/>
+      <c r="W8" s="4">
+        <v>196175</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -2763,7 +2813,9 @@
       <c r="V9" s="4">
         <v>1722</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="4">
+        <v>2584</v>
+      </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -2931,7 +2983,9 @@
       <c r="V10" s="4">
         <v>162355</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="4">
+        <v>198759</v>
+      </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -3099,7 +3153,9 @@
       <c r="V11" s="4">
         <v>2146</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="4">
+        <v>2207</v>
+      </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -3268,38 +3324,38 @@
         <v>164501</v>
       </c>
       <c r="W12" s="13">
-        <v>188160</v>
+        <v>200966</v>
       </c>
       <c r="X12" s="13">
         <v>213520</v>
       </c>
       <c r="Y12" s="13">
         <f>+X12*(1+Y28)</f>
-        <v>239420.19387755101</v>
+        <v>225524.40408825368</v>
       </c>
       <c r="Z12" s="13">
         <f t="shared" ref="Z12:AE12" si="4">+Y12*(1+Z28)</f>
-        <v>265557.91631885146</v>
+        <v>236935.78227574998</v>
       </c>
       <c r="AA12" s="13">
         <f t="shared" si="4"/>
-        <v>291649.99776267476</v>
+        <v>247725.68967298549</v>
       </c>
       <c r="AB12" s="13">
         <f t="shared" si="4"/>
-        <v>317440.15322171937</v>
+        <v>257878.83540400601</v>
       </c>
       <c r="AC12" s="13">
         <f t="shared" si="4"/>
-        <v>342703.81811800256</v>
+        <v>267391.18456824945</v>
       </c>
       <c r="AD12" s="13">
         <f t="shared" si="4"/>
-        <v>367250.67804912943</v>
+        <v>276268.09172645857</v>
       </c>
       <c r="AE12" s="13">
         <f t="shared" si="4"/>
-        <v>390925.24900334439</v>
+        <v>284522.53580804681</v>
       </c>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -3460,7 +3516,9 @@
       <c r="V13" s="4">
         <v>30161</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="4">
+        <v>36175</v>
+      </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -3646,7 +3704,7 @@
       </c>
       <c r="W14" s="4">
         <f t="shared" si="6"/>
-        <v>188160</v>
+        <v>164791</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -3815,7 +3873,9 @@
       <c r="V15" s="4">
         <v>43873</v>
       </c>
-      <c r="W15" s="4"/>
+      <c r="W15" s="4">
+        <v>57372</v>
+      </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -3983,7 +4043,9 @@
       <c r="V16" s="4">
         <v>11347</v>
       </c>
-      <c r="W16" s="4"/>
+      <c r="W16" s="4">
+        <v>11991</v>
+      </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -4151,7 +4213,9 @@
       <c r="V17" s="4">
         <v>9740</v>
       </c>
-      <c r="W17" s="4"/>
+      <c r="W17" s="4">
+        <v>12152</v>
+      </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -4337,7 +4401,7 @@
       </c>
       <c r="W18" s="4">
         <f t="shared" si="8"/>
-        <v>188160</v>
+        <v>83276</v>
       </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -4506,7 +4570,9 @@
       <c r="V19" s="4">
         <v>1283</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="W19" s="4">
+        <v>2656</v>
+      </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -4663,7 +4729,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
-        <f t="shared" ref="P20:V20" si="10">P18+P19</f>
+        <f t="shared" ref="P20:W20" si="10">P18+P19</f>
         <v>25361</v>
       </c>
       <c r="Q20" s="4">
@@ -4690,7 +4756,10 @@
         <f t="shared" si="10"/>
         <v>70663</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="4">
+        <f t="shared" si="10"/>
+        <v>85932</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -4859,7 +4928,9 @@
       <c r="V21" s="4">
         <v>8303</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="4">
+        <v>25474</v>
+      </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -5045,7 +5116,7 @@
       </c>
       <c r="W22" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>60458</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -5357,9 +5428,9 @@
         <f t="shared" si="14"/>
         <v>24.609313338595108</v>
       </c>
-      <c r="W24" s="14" t="e">
+      <c r="W24" s="14">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>23.981753272510907</v>
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
@@ -5527,7 +5598,9 @@
       <c r="V25" s="4">
         <v>2534</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="4">
+        <v>2521</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -5825,7 +5898,7 @@
       </c>
       <c r="W27" s="11">
         <f>+W3/V3-1</f>
-        <v>-1</v>
+        <v>6.8656716417910379E-2</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -5997,51 +6070,51 @@
       </c>
       <c r="W28" s="15">
         <f>+W12/V12-1</f>
-        <v>0.14382283390374528</v>
+        <v>0.22167038498246217</v>
       </c>
       <c r="X28" s="15">
         <f t="shared" ref="X28" si="19">+X12/W12-1</f>
-        <v>0.13477891156462585</v>
+        <v>6.2468278216215589E-2</v>
       </c>
       <c r="Y28" s="15">
         <f>+X28*(1-10%)</f>
-        <v>0.12130102040816326</v>
+        <v>5.622145039459403E-2</v>
       </c>
       <c r="Z28" s="15">
         <f t="shared" ref="Z28:AH28" si="20">+Y28*(1-10%)</f>
-        <v>0.10917091836734694</v>
+        <v>5.0599305355134627E-2</v>
       </c>
       <c r="AA28" s="15">
         <f t="shared" si="20"/>
-        <v>9.8253826530612251E-2</v>
+        <v>4.5539374819621163E-2</v>
       </c>
       <c r="AB28" s="15">
         <f t="shared" si="20"/>
-        <v>8.8428443877551027E-2</v>
+        <v>4.0985437337659046E-2</v>
       </c>
       <c r="AC28" s="15">
         <f t="shared" si="20"/>
-        <v>7.9585599489795933E-2</v>
+        <v>3.6886893603893141E-2</v>
       </c>
       <c r="AD28" s="15">
         <f t="shared" si="20"/>
-        <v>7.162703954081634E-2</v>
+        <v>3.319820424350383E-2</v>
       </c>
       <c r="AE28" s="15">
         <f t="shared" si="20"/>
-        <v>6.4464335586734714E-2</v>
+        <v>2.9878383819153448E-2</v>
       </c>
       <c r="AF28" s="15">
         <f t="shared" si="20"/>
-        <v>5.8017902028061244E-2</v>
+        <v>2.6890545437238105E-2</v>
       </c>
       <c r="AG28" s="15">
         <f t="shared" si="20"/>
-        <v>5.2216111825255124E-2</v>
+        <v>2.4201490893514296E-2</v>
       </c>
       <c r="AH28" s="15">
         <f t="shared" si="20"/>
-        <v>4.6994500642729614E-2</v>
+        <v>2.1781341804162867E-2</v>
       </c>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
@@ -6217,7 +6290,7 @@
       </c>
       <c r="W29" s="11">
         <f>+W14/W12</f>
-        <v>1</v>
+        <v>0.81999442691798607</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -6404,7 +6477,7 @@
       </c>
       <c r="W30" s="11">
         <f>+W18/W12</f>
-        <v>1</v>
+        <v>0.41437855159579234</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -6589,9 +6662,9 @@
         <f>+V21/V20</f>
         <v>0.11750137978857393</v>
       </c>
-      <c r="W31" s="11" t="e">
+      <c r="W31" s="11">
         <f>+W21/W20</f>
-        <v>#DIV/0!</v>
+        <v>0.29644369966950612</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -6863,7 +6936,9 @@
       <c r="V33" s="4">
         <v>43889</v>
       </c>
-      <c r="W33" s="4"/>
+      <c r="W33" s="4">
+        <v>35873</v>
+      </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -7007,7 +7082,9 @@
       <c r="V34" s="4">
         <v>33926</v>
       </c>
-      <c r="W34" s="4"/>
+      <c r="W34" s="4">
+        <v>45719</v>
+      </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -7151,7 +7228,9 @@
       <c r="V35" s="4">
         <v>16994</v>
       </c>
-      <c r="W35" s="4"/>
+      <c r="W35" s="4">
+        <v>19769</v>
+      </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -7295,7 +7374,9 @@
       <c r="V36" s="4">
         <v>5236</v>
       </c>
-      <c r="W36" s="4"/>
+      <c r="W36" s="4">
+        <v>7361</v>
+      </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -7446,7 +7527,10 @@
         <f>+SUM(V33:V36)</f>
         <v>100045</v>
       </c>
-      <c r="W37" s="4"/>
+      <c r="W37" s="4">
+        <f>+SUM(W33:W36)</f>
+        <v>108722</v>
+      </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -7590,7 +7674,9 @@
       <c r="V38" s="4">
         <v>6070</v>
       </c>
-      <c r="W38" s="4"/>
+      <c r="W38" s="4">
+        <v>27524</v>
+      </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -7734,7 +7820,9 @@
       <c r="V39" s="4">
         <v>121346</v>
       </c>
-      <c r="W39" s="4"/>
+      <c r="W39" s="4">
+        <v>176400</v>
+      </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -7878,7 +7966,9 @@
       <c r="V40" s="4">
         <v>14922</v>
       </c>
-      <c r="W40" s="4"/>
+      <c r="W40" s="4">
+        <v>20404</v>
+      </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -8027,7 +8117,9 @@
       <c r="V41" s="4">
         <v>20654</v>
       </c>
-      <c r="W41" s="4"/>
+      <c r="W41" s="4">
+        <v>24534</v>
+      </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -8171,7 +8263,9 @@
       <c r="V42" s="4">
         <v>13017</v>
       </c>
-      <c r="W42" s="4"/>
+      <c r="W42" s="4">
+        <v>8437</v>
+      </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -8322,7 +8416,10 @@
         <f>+SUM(V38:V42)</f>
         <v>176009</v>
       </c>
-      <c r="W43" s="4"/>
+      <c r="W43" s="4">
+        <f>+SUM(W38:W42)</f>
+        <v>257299</v>
+      </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -8473,7 +8570,10 @@
         <f>+V37+V43</f>
         <v>276054</v>
       </c>
-      <c r="W44" s="4"/>
+      <c r="W44" s="13">
+        <f>+W37+W43</f>
+        <v>366021</v>
+      </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -8622,7 +8722,9 @@
       <c r="V45" s="4">
         <v>7687</v>
       </c>
-      <c r="W45" s="4"/>
+      <c r="W45" s="4">
+        <v>8894</v>
+      </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -8766,7 +8868,9 @@
       <c r="V46" s="4">
         <v>1942</v>
       </c>
-      <c r="W46" s="4"/>
+      <c r="W46" s="4">
+        <v>2213</v>
+      </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -8913,7 +9017,9 @@
       <c r="V47" s="4">
         <v>23967</v>
       </c>
-      <c r="W47" s="4"/>
+      <c r="W47" s="4">
+        <v>30729</v>
+      </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -9064,7 +9170,10 @@
         <f>+SUM(V45:V47)</f>
         <v>33596</v>
       </c>
-      <c r="W48" s="4"/>
+      <c r="W48" s="4">
+        <f>+SUM(W45:W47)</f>
+        <v>41836</v>
+      </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -9208,7 +9317,9 @@
       <c r="V49" s="4">
         <v>18292</v>
       </c>
-      <c r="W49" s="4"/>
+      <c r="W49" s="4">
+        <v>22940</v>
+      </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -9352,7 +9463,9 @@
       <c r="V50" s="4">
         <v>28826</v>
       </c>
-      <c r="W50" s="4"/>
+      <c r="W50" s="4">
+        <v>58744</v>
+      </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -9496,7 +9609,9 @@
       <c r="V51" s="4">
         <v>9987</v>
       </c>
-      <c r="W51" s="4"/>
+      <c r="W51" s="4">
+        <v>21005</v>
+      </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -9640,7 +9755,9 @@
       <c r="V52" s="4">
         <v>2716</v>
       </c>
-      <c r="W52" s="4"/>
+      <c r="W52" s="4">
+        <v>4253</v>
+      </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -9791,7 +9908,10 @@
         <f>+SUM(V49:V52)</f>
         <v>59821</v>
       </c>
-      <c r="W53" s="4"/>
+      <c r="W53" s="4">
+        <f>+SUM(W49:W52)</f>
+        <v>106942</v>
+      </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -9942,7 +10062,10 @@
         <f>+V48+V53</f>
         <v>93417</v>
       </c>
-      <c r="W54" s="4"/>
+      <c r="W54" s="13">
+        <f>+W48+W53</f>
+        <v>148778</v>
+      </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -10086,7 +10209,9 @@
       <c r="V55" s="4">
         <v>182637</v>
       </c>
-      <c r="W55" s="4"/>
+      <c r="W55" s="4">
+        <v>217243</v>
+      </c>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -10237,7 +10362,10 @@
         <f>+V54+V55</f>
         <v>276054</v>
       </c>
-      <c r="W56" s="4"/>
+      <c r="W56" s="13">
+        <f>+W54+W55</f>
+        <v>366021</v>
+      </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
@@ -10515,7 +10643,9 @@
         <f>+V22</f>
         <v>62360</v>
       </c>
-      <c r="W58" s="4"/>
+      <c r="W58" s="4">
+        <v>60458</v>
+      </c>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -10659,7 +10789,9 @@
       <c r="V59" s="4">
         <v>15498</v>
       </c>
-      <c r="W59" s="4"/>
+      <c r="W59" s="4">
+        <v>18616</v>
+      </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -10803,7 +10935,9 @@
       <c r="V60" s="4">
         <v>16690</v>
       </c>
-      <c r="W60" s="4"/>
+      <c r="W60" s="4">
+        <v>20427</v>
+      </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -10947,7 +11081,9 @@
       <c r="V61" s="4">
         <v>-4738</v>
       </c>
-      <c r="W61" s="4"/>
+      <c r="W61" s="4">
+        <v>18738</v>
+      </c>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -11091,7 +11227,9 @@
       <c r="V62" s="4">
         <v>383</v>
       </c>
-      <c r="W62" s="4"/>
+      <c r="W62" s="4">
+        <v>-1138</v>
+      </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
@@ -11235,7 +11373,9 @@
       <c r="V63" s="4">
         <v>0</v>
       </c>
-      <c r="W63" s="4"/>
+      <c r="W63" s="4">
+        <v>0</v>
+      </c>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
@@ -11381,7 +11521,9 @@
       <c r="V64" s="4">
         <v>87</v>
       </c>
-      <c r="W64" s="4"/>
+      <c r="W64" s="4">
+        <v>-416</v>
+      </c>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -11525,7 +11667,9 @@
       <c r="V65" s="4">
         <v>-1485</v>
       </c>
-      <c r="W65" s="4"/>
+      <c r="W65" s="4">
+        <v>-1815</v>
+      </c>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
@@ -11669,7 +11813,9 @@
       <c r="V66" s="4">
         <v>-698</v>
       </c>
-      <c r="W66" s="4"/>
+      <c r="W66" s="4">
+        <v>-89</v>
+      </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
@@ -11813,7 +11959,9 @@
       <c r="V67" s="4">
         <v>-270</v>
       </c>
-      <c r="W67" s="4"/>
+      <c r="W67" s="4">
+        <v>-481</v>
+      </c>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
@@ -11961,7 +12109,9 @@
       <c r="V68" s="4">
         <v>373</v>
       </c>
-      <c r="W68" s="4"/>
+      <c r="W68" s="4">
+        <v>-14</v>
+      </c>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
@@ -12107,7 +12257,9 @@
       <c r="V69" s="4">
         <v>323</v>
       </c>
-      <c r="W69" s="4"/>
+      <c r="W69" s="4">
+        <v>1077</v>
+      </c>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
@@ -12251,7 +12403,9 @@
       <c r="V70" s="4">
         <v>2805</v>
       </c>
-      <c r="W70" s="4"/>
+      <c r="W70" s="4">
+        <v>437</v>
+      </c>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -12402,7 +12556,10 @@
         <f>+SUM(V65:V70)</f>
         <v>1048</v>
       </c>
-      <c r="W71" s="4"/>
+      <c r="W71" s="4">
+        <f>+SUM(W65:W70)</f>
+        <v>-885</v>
+      </c>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -12553,7 +12710,10 @@
         <f>+V58+SUM(V59:V64)+V71</f>
         <v>91328</v>
       </c>
-      <c r="W72" s="4"/>
+      <c r="W72" s="13">
+        <f>+W58+SUM(W59:W64)+W71</f>
+        <v>115800</v>
+      </c>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
@@ -12699,7 +12859,9 @@
       <c r="V73" s="4">
         <v>-37256</v>
       </c>
-      <c r="W73" s="4"/>
+      <c r="W73" s="4">
+        <v>-69691</v>
+      </c>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
@@ -12843,7 +13005,9 @@
       <c r="V74" s="4">
         <v>-25542</v>
       </c>
-      <c r="W74" s="4"/>
+      <c r="W74" s="4">
+        <v>-36929</v>
+      </c>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
@@ -12991,7 +13155,9 @@
       <c r="V75" s="4">
         <v>15789</v>
       </c>
-      <c r="W75" s="4"/>
+      <c r="W75" s="4">
+        <v>26874</v>
+      </c>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
@@ -13137,7 +13303,9 @@
       <c r="V76" s="4">
         <v>-270</v>
       </c>
-      <c r="W76" s="4"/>
+      <c r="W76" s="4">
+        <v>-4231</v>
+      </c>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
@@ -13281,7 +13449,10 @@
       <c r="V77" s="4">
         <v>129</v>
       </c>
-      <c r="W77" s="4"/>
+      <c r="W77" s="4">
+        <f>-2432+2554-18330+182</f>
+        <v>-18026</v>
+      </c>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
@@ -13432,7 +13603,10 @@
         <f>+SUM(V73:V77)</f>
         <v>-47150</v>
       </c>
-      <c r="W78" s="4"/>
+      <c r="W78" s="13">
+        <f>+SUM(W73:W77)</f>
+        <v>-102003</v>
+      </c>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
@@ -13576,7 +13750,9 @@
       <c r="V79" s="4">
         <v>-13770</v>
       </c>
-      <c r="W79" s="4"/>
+      <c r="W79" s="4">
+        <v>-18400</v>
+      </c>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
@@ -13721,7 +13897,9 @@
       <c r="V80" s="4">
         <v>-30125</v>
       </c>
-      <c r="W80" s="4"/>
+      <c r="W80" s="4">
+        <v>-26248</v>
+      </c>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
@@ -13865,7 +14043,9 @@
       <c r="V81" s="4">
         <v>-5072</v>
       </c>
-      <c r="W81" s="4"/>
+      <c r="W81" s="4">
+        <v>-5324</v>
+      </c>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
@@ -14009,7 +14189,9 @@
       <c r="V82" s="4">
         <v>10432</v>
       </c>
-      <c r="W82" s="4"/>
+      <c r="W82" s="4">
+        <v>29906</v>
+      </c>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
@@ -14153,7 +14335,9 @@
       <c r="V83" s="4">
         <v>-1969</v>
       </c>
-      <c r="W83" s="4"/>
+      <c r="W83" s="4">
+        <v>-2524</v>
+      </c>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
@@ -14299,7 +14483,9 @@
       <c r="V84" s="4">
         <v>-277</v>
       </c>
-      <c r="W84" s="4"/>
+      <c r="W84" s="4">
+        <v>2220</v>
+      </c>
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
@@ -14450,7 +14636,10 @@
         <f>+SUM(V79:V84)</f>
         <v>-40781</v>
       </c>
-      <c r="W85" s="4"/>
+      <c r="W85" s="13">
+        <f>+SUM(W79:W84)</f>
+        <v>-20370</v>
+      </c>
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
@@ -14594,7 +14783,9 @@
       <c r="V86" s="4">
         <v>-786</v>
       </c>
-      <c r="W86" s="4"/>
+      <c r="W86" s="4">
+        <v>235</v>
+      </c>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
@@ -14745,7 +14936,10 @@
         <f>+V85+V86+V78+V72</f>
         <v>2611</v>
       </c>
-      <c r="W87" s="4"/>
+      <c r="W87" s="13">
+        <f>+W85+W86+W78+W72</f>
+        <v>-6338</v>
+      </c>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
@@ -14895,7 +15089,9 @@
       <c r="V88" s="4">
         <v>42827</v>
       </c>
-      <c r="W88" s="4"/>
+      <c r="W88" s="4">
+        <v>42827</v>
+      </c>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
@@ -15046,7 +15242,10 @@
         <f>+V87+V88</f>
         <v>45438</v>
       </c>
-      <c r="W89" s="4"/>
+      <c r="W89" s="4">
+        <f>+W87+W88</f>
+        <v>36489</v>
+      </c>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
@@ -49559,10 +49758,10 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49642,7 +49841,9 @@
       <c r="I3" s="4">
         <v>598.71</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>694</v>
+      </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -49677,7 +49878,10 @@
         <f>+Model!V25</f>
         <v>2534</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <f>+Model!W25</f>
+        <v>2521</v>
+      </c>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -49689,7 +49893,7 @@
         <v>390265.59999999998</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:I5" si="1">+D3*D4</f>
+        <f t="shared" ref="D5:J5" si="1">+D3*D4</f>
         <v>595915.20000000007</v>
       </c>
       <c r="E5" s="4">
@@ -49712,7 +49916,10 @@
         <f t="shared" si="1"/>
         <v>1517131.1400000001</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>1749574</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -49747,7 +49954,10 @@
         <f>+Model!V33+Model!V34-Model!V50</f>
         <v>48989</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <f>+Model!W33+Model!W34-Model!W50</f>
+        <v>22848</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -49782,7 +49992,10 @@
         <f>+I5-I6</f>
         <v>1468142.1400000001</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <f>+J5-J6</f>
+        <v>1726726</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -49842,6 +50055,10 @@
         <f>+Model!V43+SUM(Model!V35:V36)-Model!V45</f>
         <v>190552</v>
       </c>
+      <c r="J10" s="4">
+        <f>+Model!W43+SUM(Model!W35:W36)-Model!W45</f>
+        <v>275535</v>
+      </c>
       <c r="L10" s="20" t="s">
         <v>165</v>
       </c>
@@ -49878,6 +50095,10 @@
         <f>+Model!V39+SUM(Model!V35:V36)-SUM(Model!V45,R47)-Model!V46+Model!V40-Model!V49</f>
         <v>130577</v>
       </c>
+      <c r="J11" s="4">
+        <f>+Model!W39+SUM(Model!W35:W36)-SUM(Model!W45,S47)-Model!W46+Model!W40-Model!W49</f>
+        <v>189887</v>
+      </c>
       <c r="L11" s="20" t="s">
         <v>166</v>
       </c>
@@ -49914,6 +50135,10 @@
         <f>+I11+Model!V41</f>
         <v>151231</v>
       </c>
+      <c r="J12" s="4">
+        <f>+J11+Model!W41</f>
+        <v>214421</v>
+      </c>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -49948,6 +50173,10 @@
         <f>+I12+Model!V33+Model!V34+Model!V38</f>
         <v>235116</v>
       </c>
+      <c r="J13" s="4">
+        <f>+J12+Model!W33+Model!W34+Model!W38</f>
+        <v>323537</v>
+      </c>
       <c r="L13" s="20" t="s">
         <v>169</v>
       </c>
@@ -49983,6 +50212,10 @@
       <c r="I14" s="4">
         <f>+Model!V18*(1-Model!V31)</f>
         <v>61227.754270268742</v>
+      </c>
+      <c r="J14" s="4">
+        <f>+Model!W18*(1-Model!W31)</f>
+        <v>58589.354466322206</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>171</v>
@@ -50017,6 +50250,10 @@
         <f>+I12-H12</f>
         <v>24432</v>
       </c>
+      <c r="J15" s="4">
+        <f>+J12-I12</f>
+        <v>63190</v>
+      </c>
       <c r="L15" s="20" t="s">
         <v>173</v>
       </c>
@@ -50050,6 +50287,10 @@
         <f>+I14-I15+Model!V59+Model!V60</f>
         <v>68983.75427026875</v>
       </c>
+      <c r="J16" s="4">
+        <f>+J14-J15+Model!W59+Model!W60</f>
+        <v>34442.354466322206</v>
+      </c>
       <c r="L16" s="20" t="s">
         <v>175</v>
       </c>
@@ -50082,6 +50323,10 @@
         <f>+I15/I14</f>
         <v>0.39903472356920666</v>
       </c>
+      <c r="J17" s="11">
+        <f>+J15/J14</f>
+        <v>1.0785235743862358</v>
+      </c>
       <c r="L17" s="20" t="s">
         <v>177</v>
       </c>
@@ -50118,6 +50363,10 @@
         <f>+I12*(I24-DCF!$E$18)</f>
         <v>46104.654270268737</v>
       </c>
+      <c r="J18" s="2">
+        <f>+J12*(J24-DCF!$E$18)</f>
+        <v>37147.2544663222</v>
+      </c>
       <c r="L18" s="20" t="s">
         <v>179</v>
       </c>
@@ -50159,6 +50408,10 @@
         <f>+Model!V12/Model!V55</f>
         <v>0.90069920114763169</v>
       </c>
+      <c r="J21" s="14">
+        <f>+Model!W12/Model!W55</f>
+        <v>0.92507468595075559</v>
+      </c>
       <c r="L21" s="20" t="s">
         <v>182</v>
       </c>
@@ -50195,6 +50448,10 @@
         <f>+Model!V22/Model!V55</f>
         <v>0.34144231453648494</v>
       </c>
+      <c r="J22" s="21">
+        <f>+Model!W22/Model!W55</f>
+        <v>0.27829665397734332</v>
+      </c>
       <c r="L22" s="20" t="s">
         <v>184</v>
       </c>
@@ -50231,6 +50488,10 @@
         <f>+Model!V18/KPIs!I10</f>
         <v>0.36410008816491035</v>
       </c>
+      <c r="J23" s="21">
+        <f>+Model!W18/KPIs!J10</f>
+        <v>0.30223383599179776</v>
+      </c>
       <c r="L23" s="20" t="s">
         <v>186</v>
       </c>
@@ -50267,6 +50528,10 @@
         <f>+I14/I12</f>
         <v>0.40486245723607422</v>
       </c>
+      <c r="J24" s="21">
+        <f>+J14/J12</f>
+        <v>0.27324447916165956</v>
+      </c>
       <c r="L24" s="20" t="s">
         <v>188</v>
       </c>
@@ -50303,6 +50568,10 @@
         <f>+I14/I11</f>
         <v>0.46890152377730182</v>
       </c>
+      <c r="J25" s="21">
+        <f>+J14/J11</f>
+        <v>0.30854852868454508</v>
+      </c>
       <c r="L25" s="20" t="s">
         <v>190</v>
       </c>
@@ -50347,6 +50616,10 @@
         <f>1-(-Model!V80+Model!V81)/Model!V22</f>
         <v>0.59825208466965996</v>
       </c>
+      <c r="J28" s="21">
+        <f>1-(-Model!W80+Model!W81)/Model!W22</f>
+        <v>0.65390849846174204</v>
+      </c>
       <c r="L28" s="20" t="s">
         <v>194</v>
       </c>
@@ -50383,6 +50656,10 @@
         <f>-(Model!V73+Model!V70)/KPIs!I14</f>
         <v>0.56266966526206363</v>
       </c>
+      <c r="J29" s="21">
+        <f>-(Model!W73+Model!W70)/KPIs!J14</f>
+        <v>1.1820236053259121</v>
+      </c>
       <c r="L29" s="20" t="s">
         <v>196</v>
       </c>
@@ -50419,6 +50696,10 @@
         <f>+I28*I22</f>
         <v>0.20426857646588586</v>
       </c>
+      <c r="J30" s="21">
+        <f>+J28*J22</f>
+        <v>0.18198054712925157</v>
+      </c>
       <c r="L30" s="20" t="s">
         <v>198</v>
       </c>
@@ -50454,6 +50735,10 @@
       <c r="I31" s="21">
         <f>+I29*I24</f>
         <v>0.22780382329019844</v>
+      </c>
+      <c r="J31" s="21">
+        <f>+J29*J24</f>
+        <v>0.32298142439406591</v>
       </c>
       <c r="L31" s="20" t="s">
         <v>200</v>
@@ -50555,7 +50840,10 @@
         <f>+Model!V35/Model!V12*360</f>
         <v>37.190290636531088</v>
       </c>
-      <c r="J41" s="14"/>
+      <c r="J41" s="14">
+        <f>+Model!W35/Model!W12*360</f>
+        <v>35.413154463939172</v>
+      </c>
       <c r="L41" s="20" t="s">
         <v>214</v>
       </c>
@@ -50592,7 +50880,10 @@
         <f>+Model!V45/Model!V12*360</f>
         <v>16.822511717253999</v>
       </c>
-      <c r="J42" s="14"/>
+      <c r="J42" s="14">
+        <f>+Model!W45/Model!W12*360</f>
+        <v>15.932247245802774</v>
+      </c>
       <c r="L42" s="20" t="s">
         <v>216</v>
       </c>
@@ -50622,6 +50913,9 @@
       <c r="I43" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="J43" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="L43" s="20" t="s">
         <v>218</v>
       </c>
@@ -50651,6 +50945,9 @@
       <c r="I44" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="J44" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="L44" s="20" t="s">
         <v>220</v>
       </c>
@@ -50680,6 +50977,9 @@
       <c r="I45" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="J45" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="L45" s="20" t="s">
         <v>222</v>
       </c>
@@ -50715,6 +51015,10 @@
       <c r="I46" s="23">
         <f>+I41-I42</f>
         <v>20.367778919277089</v>
+      </c>
+      <c r="J46" s="23">
+        <f>+J41-J42</f>
+        <v>19.480907218136398</v>
       </c>
       <c r="L46" s="20" t="s">
         <v>224</v>
@@ -50767,7 +51071,10 @@
         <f>+I5/Model!V22</f>
         <v>24.328594291212319</v>
       </c>
-      <c r="J50" s="14"/>
+      <c r="J50" s="14">
+        <f>+J5/Model!W22</f>
+        <v>28.938668166330345</v>
+      </c>
       <c r="L50" s="20" t="s">
         <v>228</v>
       </c>
@@ -50801,7 +51108,10 @@
         <f>+I50/((Model!V22/Model!U22-1)*100)</f>
         <v>0.40890696397464499</v>
       </c>
-      <c r="J51" s="14"/>
+      <c r="J51" s="14">
+        <f>+J50/((Model!W22/Model!V22-1)*100)</f>
+        <v>-9.487988153797895</v>
+      </c>
       <c r="L51" s="20" t="s">
         <v>230</v>
       </c>
@@ -50838,7 +51148,10 @@
         <f>+I5/Model!V44</f>
         <v>5.495776695863853</v>
       </c>
-      <c r="J52" s="14"/>
+      <c r="J52" s="14">
+        <f>+J5/Model!W44</f>
+        <v>4.7799825693061324</v>
+      </c>
       <c r="L52" s="20" t="s">
         <v>232</v>
       </c>
@@ -50890,7 +51203,10 @@
         <f>+I5/I16</f>
         <v>21.992585878351754</v>
       </c>
-      <c r="J54" s="14"/>
+      <c r="J54" s="14">
+        <f>+J5/J16</f>
+        <v>50.797166079651625</v>
+      </c>
       <c r="L54" s="20" t="s">
         <v>236</v>
       </c>
@@ -50927,7 +51243,10 @@
         <f>+I5/Model!V12</f>
         <v>9.2226256375341187</v>
       </c>
-      <c r="J55" s="14"/>
+      <c r="J55" s="14">
+        <f>+J5/Model!W12</f>
+        <v>8.7058208851248473</v>
+      </c>
       <c r="L55" s="20" t="s">
         <v>238</v>
       </c>
@@ -50971,7 +51290,10 @@
         <f>+I7/(Model!V18+Model!V59)</f>
         <v>17.297086877636136</v>
       </c>
-      <c r="J57" s="14"/>
+      <c r="J57" s="14">
+        <f>+J7/(Model!W18+Model!W59)</f>
+        <v>16.946629764849057</v>
+      </c>
       <c r="L57" s="20" t="s">
         <v>241</v>
       </c>
@@ -51008,7 +51330,10 @@
         <f>+I7/Model!V18</f>
         <v>21.160884116460078</v>
       </c>
-      <c r="J58" s="14"/>
+      <c r="J58" s="14">
+        <f>+J7/Model!W18</f>
+        <v>20.734977664633266</v>
+      </c>
       <c r="L58" s="20" t="s">
         <v>243</v>
       </c>
@@ -51042,7 +51367,10 @@
         <f>+I7/I16</f>
         <v>21.282433168946177</v>
       </c>
-      <c r="J59" s="14"/>
+      <c r="J59" s="14">
+        <f>+J7/J16</f>
+        <v>50.133796796278716</v>
+      </c>
       <c r="L59" s="20" t="s">
         <v>245</v>
       </c>
@@ -51079,7 +51407,10 @@
         <f>+I7/Model!V12</f>
         <v>8.9248219767660988</v>
       </c>
-      <c r="J60" s="14"/>
+      <c r="J60" s="14">
+        <f>+J7/Model!W12</f>
+        <v>8.5921300120418387</v>
+      </c>
       <c r="L60" s="20" t="s">
         <v>247</v>
       </c>
@@ -51458,14 +51789,14 @@
       </c>
       <c r="J3" s="33">
         <f>+Main!I2</f>
-        <v>653.79999999999995</v>
+        <v>694.88</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>249</v>
       </c>
       <c r="O3" s="33">
         <f>+J3</f>
-        <v>653.79999999999995</v>
+        <v>694.88</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
@@ -51474,14 +51805,14 @@
       </c>
       <c r="E4" s="34">
         <f ca="1">+TODAY()</f>
-        <v>45961</v>
+        <v>46056</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>251</v>
       </c>
       <c r="J4" s="35">
         <f ca="1">V62</f>
-        <v>552.80299671630655</v>
+        <v>425.11344792254357</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>252</v>
@@ -51503,7 +51834,7 @@
       </c>
       <c r="J5" s="37">
         <f ca="1">J4/J3-1</f>
-        <v>-0.15447690927453872</v>
+        <v>-0.38822034319228704</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>254</v>
@@ -51879,43 +52210,43 @@
       </c>
       <c r="M25" s="4">
         <f ca="1">L25*(1+M26)</f>
-        <v>188160</v>
+        <v>200966</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" ref="N25:V25" ca="1" si="1">M25*(1+N26)</f>
-        <v>213520</v>
+        <v>213519.99999999997</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>239420.19387755101</v>
+        <v>225524.40408825365</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>265557.91631885146</v>
+        <v>236935.78227574995</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>291649.99776267476</v>
+        <v>247725.68967298546</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>317440.15322171937</v>
+        <v>257878.83540400598</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>342703.81811800256</v>
+        <v>267391.18456824939</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>367250.67804912943</v>
+        <v>276268.09172645852</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>390925.24900334439</v>
+        <v>284522.5358080467</v>
       </c>
       <c r="V25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>413605.91180031589</v>
+        <v>292173.50198511122</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -51949,43 +52280,43 @@
       </c>
       <c r="M26" s="46" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">OFFSET(M26,$E$11,,)</f>
-        <v>0.14382283390374528</v>
+        <v>0.22167038498246217</v>
       </c>
       <c r="N26" s="46" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">OFFSET(N26,$E$11,,)</f>
-        <v>0.13477891156462585</v>
+        <v>6.2468278216215589E-2</v>
       </c>
       <c r="O26" s="46" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">OFFSET(O26,$E$11,,)</f>
-        <v>0.12130102040816326</v>
+        <v>5.622145039459403E-2</v>
       </c>
       <c r="P26" s="46" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">OFFSET(P26,$E$11,,)</f>
-        <v>0.10917091836734694</v>
+        <v>5.0599305355134627E-2</v>
       </c>
       <c r="Q26" s="46" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">OFFSET(Q26,$E$11,,)</f>
-        <v>9.8253826530612251E-2</v>
+        <v>4.5539374819621163E-2</v>
       </c>
       <c r="R26" s="46" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">OFFSET(R26,$E$11,,)</f>
-        <v>8.8428443877551027E-2</v>
+        <v>4.0985437337659046E-2</v>
       </c>
       <c r="S26" s="46" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">OFFSET(S26,$E$11,,)</f>
-        <v>7.9585599489795933E-2</v>
+        <v>3.6886893603893141E-2</v>
       </c>
       <c r="T26" s="46" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">OFFSET(T26,$E$11,,)</f>
-        <v>7.162703954081634E-2</v>
+        <v>3.319820424350383E-2</v>
       </c>
       <c r="U26" s="46" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">OFFSET(U26,$E$11,,)</f>
-        <v>6.4464335586734714E-2</v>
+        <v>2.9878383819153448E-2</v>
       </c>
       <c r="V26" s="46" cm="1">
         <f t="array" aca="1" ref="V26" ca="1">OFFSET(V26,$E$11,,)</f>
-        <v>5.8017902028061244E-2</v>
+        <v>2.6890545437238105E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -52019,43 +52350,43 @@
       <c r="L28" s="11"/>
       <c r="M28" s="47">
         <f>+Model!W28</f>
-        <v>0.14382283390374528</v>
+        <v>0.22167038498246217</v>
       </c>
       <c r="N28" s="47">
         <f>+Model!X28</f>
-        <v>0.13477891156462585</v>
+        <v>6.2468278216215589E-2</v>
       </c>
       <c r="O28" s="47">
         <f>+Model!Y28</f>
-        <v>0.12130102040816326</v>
+        <v>5.622145039459403E-2</v>
       </c>
       <c r="P28" s="47">
         <f>+Model!Z28</f>
-        <v>0.10917091836734694</v>
+        <v>5.0599305355134627E-2</v>
       </c>
       <c r="Q28" s="47">
         <f>+Model!AA28</f>
-        <v>9.8253826530612251E-2</v>
+        <v>4.5539374819621163E-2</v>
       </c>
       <c r="R28" s="47">
         <f>+Model!AB28</f>
-        <v>8.8428443877551027E-2</v>
+        <v>4.0985437337659046E-2</v>
       </c>
       <c r="S28" s="47">
         <f>+Model!AC28</f>
-        <v>7.9585599489795933E-2</v>
+        <v>3.6886893603893141E-2</v>
       </c>
       <c r="T28" s="47">
         <f>+Model!AD28</f>
-        <v>7.162703954081634E-2</v>
+        <v>3.319820424350383E-2</v>
       </c>
       <c r="U28" s="47">
         <f>+Model!AE28</f>
-        <v>6.4464335586734714E-2</v>
+        <v>2.9878383819153448E-2</v>
       </c>
       <c r="V28" s="47">
         <f>+Model!AF28</f>
-        <v>5.8017902028061244E-2</v>
+        <v>2.6890545437238105E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -52112,43 +52443,43 @@
       </c>
       <c r="M31" s="4">
         <f ca="1">M32*M25</f>
-        <v>79027.199999999997</v>
+        <v>84405.72</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" ref="N31:V31" ca="1" si="3">N32*N25</f>
-        <v>90746</v>
+        <v>90745.999999999985</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>102950.68336734694</v>
+        <v>96975.493757949065</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>116845.48318029464</v>
+        <v>104251.74420132997</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>131242.49899320366</v>
+        <v>111476.56035284346</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>142848.06894977373</v>
+        <v>116045.47593180269</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>154216.71815310116</v>
+        <v>120326.03305571222</v>
       </c>
       <c r="T31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>165262.80512210826</v>
+        <v>124320.64127690633</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>175916.36205150498</v>
+        <v>128035.14111362102</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>186122.66031014215</v>
+        <v>131478.07589330006</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -52323,43 +52654,43 @@
       </c>
       <c r="M37" s="4">
         <f ca="1">M38*M31</f>
-        <v>11854.08</v>
+        <v>12660.858</v>
       </c>
       <c r="N37" s="4">
         <f t="shared" ref="N37:V37" ca="1" si="5">N38*N31</f>
-        <v>13611.9</v>
+        <v>13611.899999999998</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>15442.602505102041</v>
+        <v>14546.32406369236</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>17526.822477044196</v>
+        <v>15637.761630199495</v>
       </c>
       <c r="Q37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>19686.374848980548</v>
+        <v>16721.484052926517</v>
       </c>
       <c r="R37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>21427.21034246606</v>
+        <v>17406.821389770404</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>23132.507722965172</v>
+        <v>18048.904958356834</v>
       </c>
       <c r="T37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>24789.420768316239</v>
+        <v>18648.096191535948</v>
       </c>
       <c r="U37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>26387.454307725748</v>
+        <v>19205.271167043153</v>
       </c>
       <c r="V37" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>27918.399046521321</v>
+        <v>19721.711383995007</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
@@ -52465,43 +52796,43 @@
       </c>
       <c r="M40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>67173.119999999995</v>
+        <v>71744.861999999994</v>
       </c>
       <c r="N40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>77134.100000000006</v>
+        <v>77134.099999999991</v>
       </c>
       <c r="O40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>87508.080862244897</v>
+        <v>82429.169694256707</v>
       </c>
       <c r="P40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>99318.66070325044</v>
+        <v>88613.982571130473</v>
       </c>
       <c r="Q40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>111556.12414422311</v>
+        <v>94755.076299916938</v>
       </c>
       <c r="R40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>121420.85860730767</v>
+        <v>98638.65454203228</v>
       </c>
       <c r="S40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>131084.21043013598</v>
+        <v>102277.12809735539</v>
       </c>
       <c r="T40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>140473.384353792</v>
+        <v>105672.54508537038</v>
       </c>
       <c r="U40" s="50">
         <f t="shared" ca="1" si="7"/>
-        <v>149528.90774377924</v>
+        <v>108829.86994657788</v>
       </c>
       <c r="V40" s="51">
         <f t="shared" ca="1" si="7"/>
-        <v>158204.26126362084</v>
+        <v>111756.36450930506</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
@@ -52538,43 +52869,43 @@
       </c>
       <c r="M42" s="4">
         <f ca="1">M43*M25</f>
-        <v>35750.400000000001</v>
+        <v>38183.54</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" ref="N42:V42" ca="1" si="8">N43*N25</f>
-        <v>40568.800000000003</v>
+        <v>40568.799999999996</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>45489.836836734692</v>
+        <v>42849.636776768195</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>50456.004100581777</v>
+        <v>45017.798632392492</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>55413.499574908201</v>
+        <v>47067.881037867235</v>
       </c>
       <c r="R42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60313.629112126684</v>
+        <v>48996.978726761139</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>65113.725442420488</v>
+        <v>50804.325067967387</v>
       </c>
       <c r="T42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>69777.628829334586</v>
+        <v>52490.937428027115</v>
       </c>
       <c r="U42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>74275.797310635433</v>
+        <v>54059.281803528873</v>
       </c>
       <c r="V42" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>78585.123242060028</v>
+        <v>55512.965377171131</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
@@ -52677,7 +53008,7 @@
       </c>
       <c r="M45" s="4">
         <f ca="1">M46*M25</f>
-        <v>-43276.800000000003</v>
+        <v>-46222.18</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" ref="N45:V45" ca="1" si="10">N46*N25</f>
@@ -52685,35 +53016,35 @@
       </c>
       <c r="O45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-55066.644591836732</v>
+        <v>-51870.612940298342</v>
       </c>
       <c r="P45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-61078.320753335836</v>
+        <v>-54495.229923422492</v>
       </c>
       <c r="Q45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-67079.499485415203</v>
+        <v>-56976.908624786658</v>
       </c>
       <c r="R45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-73011.235240995462</v>
+        <v>-59312.132142921379</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-78821.878167140589</v>
+        <v>-61499.972450697365</v>
       </c>
       <c r="T45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-84467.655951299777</v>
+        <v>-63541.66109708546</v>
       </c>
       <c r="U45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-89912.807270769219</v>
+        <v>-65440.183235850745</v>
       </c>
       <c r="V45" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>-95129.359714072663</v>
+        <v>-67199.90545657558</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
@@ -52813,7 +53144,7 @@
       </c>
       <c r="M48" s="4">
         <f ca="1">M49*M25</f>
-        <v>1881.6000000000001</v>
+        <v>2009.66</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" ref="N48:V48" ca="1" si="12">N49*N25</f>
@@ -52821,35 +53152,35 @@
       </c>
       <c r="O48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2394.2019387755099</v>
+        <v>2255.2440408825364</v>
       </c>
       <c r="P48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2655.5791631885145</v>
+        <v>2369.3578227574994</v>
       </c>
       <c r="Q48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>2916.4999776267478</v>
+        <v>2477.2568967298548</v>
       </c>
       <c r="R48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3174.401532217194</v>
+        <v>2578.7883540400599</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3427.0381811800257</v>
+        <v>2673.911845682494</v>
       </c>
       <c r="T48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3672.5067804912942</v>
+        <v>2762.6809172645853</v>
       </c>
       <c r="U48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>3909.2524900334438</v>
+        <v>2845.2253580804672</v>
       </c>
       <c r="V48" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>4136.0591180031588</v>
+        <v>2921.7350198511122</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
@@ -52952,43 +53283,43 @@
       </c>
       <c r="M51" s="57">
         <f ca="1">M40+M42+M45+M48</f>
-        <v>61528.319999999985</v>
+        <v>65715.881999999998</v>
       </c>
       <c r="N51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>70728.500000000015</v>
+        <v>70728.499999999985</v>
       </c>
       <c r="O51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>80325.475045918371</v>
+        <v>75663.437571609102</v>
       </c>
       <c r="P51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>91351.923213684888</v>
+        <v>81505.909102857971</v>
       </c>
       <c r="Q51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>102806.62421134286</v>
+        <v>87323.30560972738</v>
       </c>
       <c r="R51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>111897.6540106561</v>
+        <v>90902.289479912084</v>
       </c>
       <c r="S51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>120803.09588659591</v>
+        <v>94255.392560307911</v>
       </c>
       <c r="T51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>129455.8640123181</v>
+        <v>97384.502333576631</v>
       </c>
       <c r="U51" s="57">
         <f t="shared" ca="1" si="14"/>
-        <v>137801.15027367894</v>
+        <v>100294.19387233647</v>
       </c>
       <c r="V51" s="58">
         <f ca="1">V40+V42+V45+V48</f>
-        <v>145796.08390961136</v>
+        <v>102991.15944975172</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
@@ -53007,43 +53338,43 @@
       <c r="L52" s="61"/>
       <c r="M52" s="61">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>10093.110450051576</v>
+        <v>5971.555193904368</v>
       </c>
       <c r="N52" s="61">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>63285.320184840231</v>
+        <v>63739.321053994921</v>
       </c>
       <c r="O52" s="61">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>65338.498718599825</v>
+        <v>61987.820769507161</v>
       </c>
       <c r="P52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>67552.411717078576</v>
+        <v>60703.916368181643</v>
       </c>
       <c r="Q52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>69111.700231309878</v>
+        <v>59124.175491447284</v>
       </c>
       <c r="R52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>68384.673033178551</v>
+        <v>55952.18698290248</v>
       </c>
       <c r="S52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>67115.552938579756</v>
+        <v>52741.899410041769</v>
       </c>
       <c r="T52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>65384.401184286478</v>
+        <v>49538.941598951504</v>
       </c>
       <c r="U52" s="61">
         <f t="shared" ca="1" si="15"/>
-        <v>63272.148331243676</v>
+        <v>46380.986463672372</v>
       </c>
       <c r="V52" s="62">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>60857.332394755198</v>
+        <v>43298.360443270612</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -53052,43 +53383,43 @@
       </c>
       <c r="M53" s="14">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.16666666666666666</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="N53" s="14">
         <f ca="1">M53+1</f>
-        <v>1.1666666666666667</v>
+        <v>1.0916666666666666</v>
       </c>
       <c r="O53" s="14">
         <f ca="1">N53+1</f>
-        <v>2.166666666666667</v>
+        <v>2.0916666666666668</v>
       </c>
       <c r="P53" s="14">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.166666666666667</v>
+        <v>3.0916666666666668</v>
       </c>
       <c r="Q53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>4.166666666666667</v>
+        <v>4.0916666666666668</v>
       </c>
       <c r="R53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>5.166666666666667</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="S53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>6.166666666666667</v>
+        <v>6.0916666666666668</v>
       </c>
       <c r="T53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>7.166666666666667</v>
+        <v>7.0916666666666668</v>
       </c>
       <c r="U53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1666666666666679</v>
+        <v>8.0916666666666668</v>
       </c>
       <c r="V53" s="14">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1666666666666679</v>
+        <v>9.0916666666666668</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -53101,7 +53432,7 @@
       <c r="Q54" s="24"/>
       <c r="V54" s="4">
         <f ca="1">SUM(M52:V52)</f>
-        <v>600395.14918392373</v>
+        <v>499439.16377587407</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -53114,7 +53445,7 @@
       <c r="Q55" s="24"/>
       <c r="V55" s="4">
         <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
-        <v>1862290.1611603366</v>
+        <v>1315532.0622238196</v>
       </c>
       <c r="X55" s="20" t="s">
         <v>286</v>
@@ -53145,7 +53476,7 @@
       <c r="U56" s="63"/>
       <c r="V56" s="64">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>777346.05974382744</v>
+        <v>553060.88123647543</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -53173,7 +53504,7 @@
       <c r="U57" s="65"/>
       <c r="V57" s="66">
         <f ca="1">V54+V56</f>
-        <v>1377741.2089277511</v>
+        <v>1052500.0450123495</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -53186,7 +53517,7 @@
       <c r="Q58" s="24"/>
       <c r="V58" s="67">
         <f>+Main!I5</f>
-        <v>44448</v>
+        <v>81592</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -53214,7 +53545,7 @@
       <c r="U59" s="63"/>
       <c r="V59" s="64">
         <f>+Main!I6</f>
-        <v>28834</v>
+        <v>58744</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -53227,7 +53558,7 @@
       <c r="Q60" s="24"/>
       <c r="V60" s="67">
         <f ca="1">V57+V58-V59</f>
-        <v>1393355.2089277511</v>
+        <v>1075348.0450123495</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -53255,7 +53586,7 @@
       <c r="U61" s="63"/>
       <c r="V61" s="64">
         <f>+Main!I3</f>
-        <v>2520.5275969999998</v>
+        <v>2529.555464</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -53264,7 +53595,7 @@
       </c>
       <c r="V62" s="67">
         <f ca="1">V60/V61</f>
-        <v>552.80299671630655</v>
+        <v>425.11344792254357</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -53325,7 +53656,7 @@
       </c>
       <c r="C69" s="69">
         <f ca="1">+J4</f>
-        <v>552.80299671630655</v>
+        <v>425.11344792254357</v>
       </c>
       <c r="D69" s="70"/>
       <c r="E69" s="70"/>
@@ -53339,7 +53670,7 @@
       </c>
       <c r="N69" s="69">
         <f ca="1">+J4</f>
-        <v>552.80299671630655</v>
+        <v>425.11344792254357</v>
       </c>
       <c r="O69" s="70"/>
       <c r="P69" s="70"/>
